--- a/biology/Zoologie/Cryptoblepharus/Cryptoblepharus.xlsx
+++ b/biology/Zoologie/Cryptoblepharus/Cryptoblepharus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptoblepharus est un genre de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptoblepharus est un genre de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Australie, en Indonésie, sur la cote et les îles africaines de l'océan Indien et dans les îles de l'océan Pacifique jusqu'aux Fidji et dans l'archipel d'Ogasawara[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Australie, en Indonésie, sur la cote et les îles africaines de l'océan Indien et dans les îles de l'océan Pacifique jusqu'aux Fidji et dans l'archipel d'Ogasawara.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (8 aout 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (8 aout 2012) :
 Cryptoblepharus adamsi Horner, 2007
 Cryptoblepharus africanus (Sternfeld, 1918)
 Cryptoblepharus ahli Mertens, 1928
@@ -625,7 +641,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wiegmann, 1835 "1834" : Beiträge zur Zoologie gesammelt auf einer Reise um die Erde. Siebente Abhandlung. Amphibien. Nova Acta Physico-Medica, Academiae Caesarae Leopoldino-Carolinae, Halle, vol. 17, p. 185-268 (texte intégral).</t>
         </is>
